--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,28 +46,289 @@
     <t>forced</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>fear</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>low</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -76,310 +337,100 @@
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>stores</t>
   </si>
   <si>
     <t>everyone</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>via</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>know</t>
   </si>
   <si>
     <t>masks</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>business</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>buy</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>people</t>
   </si>
   <si>
     <t>workers</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>prices</t>
+    <t>going</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>going</t>
   </si>
   <si>
     <t>food</t>
@@ -740,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,28 +881,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9137931034482759</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -859,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,31 +928,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L4">
+        <v>53</v>
+      </c>
+      <c r="M4">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L4">
-        <v>104</v>
-      </c>
-      <c r="M4">
-        <v>107</v>
-      </c>
-      <c r="N4">
-        <v>0.97</v>
-      </c>
-      <c r="O4">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +960,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6746575342465754</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,28 +978,28 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>15</v>
@@ -959,13 +1010,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6388888888888888</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,31 +1028,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8503937007874016</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +1060,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3866666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,31 +1078,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.825</v>
+        <v>0.8515625</v>
       </c>
       <c r="L7">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2549019607843137</v>
+        <v>0.36</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,31 +1128,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.7579617834394905</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L8">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="N8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1109,13 +1160,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2461240310077519</v>
+        <v>0.251937984496124</v>
       </c>
       <c r="C9">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,31 +1178,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.7555555555555555</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,28 +1231,28 @@
         <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.73</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N10">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,187 +1260,115 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.08843537414965986</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>135</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L11">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>206</v>
-      </c>
-      <c r="E11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>134</v>
-      </c>
-      <c r="J11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>124</v>
+      </c>
+      <c r="M12">
+        <v>124</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L13">
+        <v>48</v>
+      </c>
+      <c r="M13">
+        <v>48</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L11">
-        <v>102</v>
-      </c>
-      <c r="M11">
-        <v>103</v>
-      </c>
-      <c r="N11">
-        <v>0.99</v>
-      </c>
-      <c r="O11">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.08724832214765101</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>136</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L12">
-        <v>65</v>
-      </c>
-      <c r="M12">
-        <v>69</v>
-      </c>
-      <c r="N12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.01322599194939621</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>427</v>
-      </c>
-      <c r="E13">
-        <v>0.95</v>
-      </c>
-      <c r="F13">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1716</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.6926406926406926</v>
-      </c>
-      <c r="L13">
-        <v>160</v>
-      </c>
-      <c r="M13">
-        <v>168</v>
-      </c>
-      <c r="N13">
-        <v>0.95</v>
-      </c>
-      <c r="O13">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.00994431185361973</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>618</v>
-      </c>
-      <c r="E14">
-        <v>0.96</v>
-      </c>
-      <c r="F14">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2489</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.6388888888888888</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6190476190476191</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,177 +1406,177 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.5902140672782875</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>134</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.5671641791044776</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.5538057742782152</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.5520833333333334</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L19">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.543859649122807</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5402298850574713</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5319148936170213</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.4705882352941176</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1635,177 +1614,177 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4285714285714285</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M25">
+        <v>41</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>29</v>
-      </c>
-      <c r="N25">
-        <v>0.93</v>
-      </c>
-      <c r="O25">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.40625</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4050632911392405</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4047619047619048</v>
+        <v>0.5587467362924282</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4042553191489361</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>20</v>
-      </c>
-      <c r="N29">
-        <v>0.95</v>
-      </c>
-      <c r="O29">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.375</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.375</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1843,41 +1822,41 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.3726415094339622</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L32">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3714285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L33">
         <v>13</v>
@@ -1895,47 +1874,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.3381995133819951</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L34">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>272</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.3333333333333333</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1947,41 +1926,41 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.308641975308642</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3076923076923077</v>
+        <v>0.4375</v>
       </c>
       <c r="L37">
         <v>28</v>
@@ -1999,47 +1978,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.3</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.2869565217391304</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2051,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.28</v>
+        <v>0.4086956521739131</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2077,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.2765957446808511</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2103,47 +2082,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.2708333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.2653061224489796</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2155,47 +2134,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.2611464968152866</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.2439024390243902</v>
+        <v>0.375</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2207,99 +2186,99 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.2361111111111111</v>
+        <v>0.36</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M46">
         <v>18</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.2311435523114355</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L47">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>316</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.2309278350515464</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L48">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="M48">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>373</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.2277227722772277</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2311,73 +2290,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.2260869565217391</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="L50">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>267</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.2258064516129032</v>
+        <v>0.3251533742331288</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2238805970149254</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2389,21 +2368,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.2236842105263158</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2415,73 +2394,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.221875</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L54">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2206572769953052</v>
+        <v>0.3</v>
       </c>
       <c r="L55">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.2203389830508475</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2493,21 +2472,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.218978102189781</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2519,73 +2498,73 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.2181818181818182</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.2170542635658915</v>
+        <v>0.2893081761006289</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.2097902097902098</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2597,163 +2576,163 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.2074408117249154</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="L61">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="M61">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>703</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.1966480446927374</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="L62">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>719</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.1954887218045113</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>107</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.1924075275794938</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L64">
-        <v>593</v>
+        <v>27</v>
       </c>
       <c r="M64">
-        <v>618</v>
+        <v>27</v>
       </c>
       <c r="N64">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2489</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1923076923076923</v>
+        <v>0.2658227848101266</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.1905660377358491</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L66">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="M66">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1716</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2761,13 +2740,13 @@
         <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1884057971014493</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2779,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2787,25 +2766,25 @@
         <v>83</v>
       </c>
       <c r="K68">
-        <v>0.1830985915492958</v>
+        <v>0.2627737226277372</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2813,25 +2792,25 @@
         <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1824104234527687</v>
+        <v>0.2511627906976744</v>
       </c>
       <c r="L69">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M69">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>251</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2839,13 +2818,13 @@
         <v>85</v>
       </c>
       <c r="K70">
-        <v>0.1818181818181818</v>
+        <v>0.247787610619469</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2857,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2865,13 +2844,13 @@
         <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1810344827586207</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2883,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2891,25 +2870,25 @@
         <v>87</v>
       </c>
       <c r="K72">
-        <v>0.1801801801801802</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2917,13 +2896,13 @@
         <v>88</v>
       </c>
       <c r="K73">
-        <v>0.1768707482993197</v>
+        <v>0.2379807692307692</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="M73">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2935,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>121</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2943,25 +2922,25 @@
         <v>89</v>
       </c>
       <c r="K74">
-        <v>0.1755725190839695</v>
+        <v>0.2378223495702006</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="N74">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>108</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2969,25 +2948,25 @@
         <v>90</v>
       </c>
       <c r="K75">
-        <v>0.1716814159292036</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="L75">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>468</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2995,25 +2974,25 @@
         <v>91</v>
       </c>
       <c r="K76">
-        <v>0.1710730948678071</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L76">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="M76">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="N76">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>533</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3021,25 +3000,25 @@
         <v>92</v>
       </c>
       <c r="K77">
-        <v>0.1709401709401709</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="L77">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N77">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3047,13 +3026,13 @@
         <v>93</v>
       </c>
       <c r="K78">
-        <v>0.1666666666666667</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L78">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M78">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3065,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>65</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3073,13 +3052,13 @@
         <v>94</v>
       </c>
       <c r="K79">
-        <v>0.1592920353982301</v>
+        <v>0.2192393736017897</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3091,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>95</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3099,13 +3078,13 @@
         <v>95</v>
       </c>
       <c r="K80">
-        <v>0.1565217391304348</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="L80">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3117,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>194</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3125,25 +3104,25 @@
         <v>96</v>
       </c>
       <c r="K81">
-        <v>0.1525423728813559</v>
+        <v>0.2139917695473251</v>
       </c>
       <c r="L81">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="M81">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>200</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3151,13 +3130,13 @@
         <v>97</v>
       </c>
       <c r="K82">
-        <v>0.1467889908256881</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L82">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3169,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3177,25 +3156,25 @@
         <v>98</v>
       </c>
       <c r="K83">
-        <v>0.1451612903225807</v>
+        <v>0.211038961038961</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>106</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3203,25 +3182,25 @@
         <v>99</v>
       </c>
       <c r="K84">
-        <v>0.1428571428571428</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="L84">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M84">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>228</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3229,13 +3208,13 @@
         <v>100</v>
       </c>
       <c r="K85">
-        <v>0.1413043478260869</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L85">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M85">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3247,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3255,25 +3234,25 @@
         <v>101</v>
       </c>
       <c r="K86">
-        <v>0.140625</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="L86">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M86">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3281,25 +3260,25 @@
         <v>102</v>
       </c>
       <c r="K87">
-        <v>0.1325581395348837</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="L87">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="M87">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="N87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>746</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3307,25 +3286,25 @@
         <v>103</v>
       </c>
       <c r="K88">
-        <v>0.1323529411764706</v>
+        <v>0.2</v>
       </c>
       <c r="L88">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N88">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3333,25 +3312,25 @@
         <v>104</v>
       </c>
       <c r="K89">
-        <v>0.1308411214953271</v>
+        <v>0.1997780244173141</v>
       </c>
       <c r="L89">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="M89">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="N89">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>93</v>
+        <v>721</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3359,13 +3338,13 @@
         <v>105</v>
       </c>
       <c r="K90">
-        <v>0.1174377224199288</v>
+        <v>0.1978534764349043</v>
       </c>
       <c r="L90">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="M90">
-        <v>33</v>
+        <v>424</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3377,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>248</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3385,13 +3364,13 @@
         <v>106</v>
       </c>
       <c r="K91">
-        <v>0.1167883211678832</v>
+        <v>0.1943997425168973</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>604</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>604</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3403,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>121</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3411,25 +3390,25 @@
         <v>107</v>
       </c>
       <c r="K92">
-        <v>0.1165644171779141</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L92">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N92">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>144</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3437,25 +3416,25 @@
         <v>108</v>
       </c>
       <c r="K93">
-        <v>0.1147540983606557</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="M93">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="N93">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>162</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3463,13 +3442,13 @@
         <v>109</v>
       </c>
       <c r="K94">
-        <v>0.1129032258064516</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="L94">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M94">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3481,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3489,25 +3468,25 @@
         <v>110</v>
       </c>
       <c r="K95">
-        <v>0.1120851596743895</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="L95">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="M95">
-        <v>365</v>
+        <v>48</v>
       </c>
       <c r="N95">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>2836</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3515,25 +3494,25 @@
         <v>111</v>
       </c>
       <c r="K96">
-        <v>0.1102362204724409</v>
+        <v>0.1679506933744222</v>
       </c>
       <c r="L96">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="N96">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O96">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>113</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3541,25 +3520,25 @@
         <v>112</v>
       </c>
       <c r="K97">
-        <v>0.1102362204724409</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L97">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N97">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3567,13 +3546,13 @@
         <v>113</v>
       </c>
       <c r="K98">
-        <v>0.1046511627906977</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3585,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3593,13 +3572,13 @@
         <v>114</v>
       </c>
       <c r="K99">
-        <v>0.08333333333333333</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L99">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M99">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3611,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>275</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3619,13 +3598,13 @@
         <v>115</v>
       </c>
       <c r="K100">
-        <v>0.08</v>
+        <v>0.1487889273356401</v>
       </c>
       <c r="L100">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3637,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>207</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3645,25 +3624,25 @@
         <v>116</v>
       </c>
       <c r="K101">
-        <v>0.07964601769911504</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M101">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N101">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3671,25 +3650,25 @@
         <v>117</v>
       </c>
       <c r="K102">
-        <v>0.07865168539325842</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="L102">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="M102">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="N102">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1066</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3697,25 +3676,25 @@
         <v>118</v>
       </c>
       <c r="K103">
-        <v>0.07540983606557378</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L103">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M103">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N103">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>282</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3723,25 +3702,25 @@
         <v>119</v>
       </c>
       <c r="K104">
-        <v>0.06679035250463822</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L104">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M104">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N104">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>503</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3749,25 +3728,25 @@
         <v>120</v>
       </c>
       <c r="K105">
-        <v>0.06406685236768803</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L105">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M105">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N105">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>336</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3775,13 +3754,13 @@
         <v>121</v>
       </c>
       <c r="K106">
-        <v>0.06086956521739131</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L106">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M106">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3793,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>216</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3801,25 +3780,467 @@
         <v>122</v>
       </c>
       <c r="K107">
-        <v>0.05120167189132706</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L107">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M107">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="N107">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>908</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K108">
+        <v>0.1284403669724771</v>
+      </c>
+      <c r="L108">
+        <v>14</v>
+      </c>
+      <c r="M108">
+        <v>14</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K109">
+        <v>0.125</v>
+      </c>
+      <c r="L109">
+        <v>13</v>
+      </c>
+      <c r="M109">
+        <v>13</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K110">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="L110">
+        <v>20</v>
+      </c>
+      <c r="M110">
+        <v>20</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K111">
+        <v>0.1208997188378632</v>
+      </c>
+      <c r="L111">
+        <v>387</v>
+      </c>
+      <c r="M111">
+        <v>387</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K112">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="L112">
+        <v>22</v>
+      </c>
+      <c r="M112">
+        <v>22</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K113">
+        <v>0.1138790035587189</v>
+      </c>
+      <c r="L113">
+        <v>32</v>
+      </c>
+      <c r="M113">
+        <v>32</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K114">
+        <v>0.1104651162790698</v>
+      </c>
+      <c r="L114">
+        <v>19</v>
+      </c>
+      <c r="M114">
+        <v>19</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K115">
+        <v>0.1015625</v>
+      </c>
+      <c r="L115">
+        <v>13</v>
+      </c>
+      <c r="M115">
+        <v>13</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K116">
+        <v>0.1013215859030837</v>
+      </c>
+      <c r="L116">
+        <v>23</v>
+      </c>
+      <c r="M116">
+        <v>23</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K117">
+        <v>0.09777777777777778</v>
+      </c>
+      <c r="L117">
+        <v>22</v>
+      </c>
+      <c r="M117">
+        <v>22</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K118">
+        <v>0.08440999138673558</v>
+      </c>
+      <c r="L118">
+        <v>98</v>
+      </c>
+      <c r="M118">
+        <v>98</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K119">
+        <v>0.08440366972477065</v>
+      </c>
+      <c r="L119">
+        <v>46</v>
+      </c>
+      <c r="M119">
+        <v>46</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K120">
+        <v>0.08</v>
+      </c>
+      <c r="L120">
+        <v>24</v>
+      </c>
+      <c r="M120">
+        <v>24</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K121">
+        <v>0.0782608695652174</v>
+      </c>
+      <c r="L121">
+        <v>18</v>
+      </c>
+      <c r="M121">
+        <v>18</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K122">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="L122">
+        <v>28</v>
+      </c>
+      <c r="M122">
+        <v>28</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K123">
+        <v>0.07516339869281045</v>
+      </c>
+      <c r="L123">
+        <v>23</v>
+      </c>
+      <c r="M123">
+        <v>23</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K124">
+        <v>0.05578512396694215</v>
+      </c>
+      <c r="L124">
+        <v>54</v>
+      </c>
+      <c r="M124">
+        <v>54</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
